--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2023/Tháng1/NKSX_17_HUB_110123.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2023/Tháng1/NKSX_17_HUB_110123.xlsx
@@ -105,10 +105,10 @@
     <t>Ngày: 11 Tháng 01 Năm 2023</t>
   </si>
   <si>
-    <t>TP_HUB_V1.3</t>
-  </si>
-  <si>
     <t>Nhập kho thành phẩm lô 1-2023</t>
+  </si>
+  <si>
+    <t>TP_HUB_VACC_H1_V1.3</t>
   </si>
 </sst>
 </file>
@@ -390,6 +390,54 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -416,54 +464,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -505,7 +505,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -876,7 +876,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="A11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -899,57 +899,57 @@
   <sheetData>
     <row r="1" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="17" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="25" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="25"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="25" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="25"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="25" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="25"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1007,29 +1007,29 @@
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24" t="s">
+      <c r="H8" s="40"/>
+      <c r="I8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24" t="s">
+      <c r="J8" s="40"/>
+      <c r="K8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="24"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1038,25 +1038,25 @@
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="16">
         <v>17</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="26"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="17"/>
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1075,50 +1075,50 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="33" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="31" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="34"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27" t="s">
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="35"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -1166,27 +1166,27 @@
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28" t="s">
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="36"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" spans="6:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F17" s="10"/>
@@ -1205,6 +1205,15 @@
     <row r="25" spans="6:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E2:K4"/>
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I16:K16"/>
@@ -1221,15 +1230,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="A2:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0" top="0.78740157480314965" bottom="0" header="0" footer="0"/>
